--- a/03.crawler/09.FourSeasons/file/4.collate/crawler_1.xlsx
+++ b/03.crawler/09.FourSeasons/file/4.collate/crawler_1.xlsx
@@ -441,209 +441,209 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Part Number</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Partdesc_En</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Partlongdesc_En</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pop</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Qtyeach</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Vehicle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Picture</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Type_1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>California Proposition 65</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Core Depth Fraction</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Core Depth IN</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Core Depth MM</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Core Height Fraction</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Core Height IN</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Core Height MM</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Core Width Fraction</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Core Width IN</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Core Width MM</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Inlet Gender</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Inlet Size</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Inlet Style</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Inlet Type</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>O-Ring A Number/Desc</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>O-Ring A Quantity</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>O-Ring B Number/Desc</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>O-Ring B Quantity</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Orifice Tube?</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Outlet Gender</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Outlet Size</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Outlet Style</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Outlet Type</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Outlet Type-1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Outlet Type-2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Overall Depth Fraction</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Overall Height Fraction</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Overall Width Fraction</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Partdesc_En</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Partlongdesc_En</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Pop</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Qtyeach</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Run  Length IN</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Service</t>
-        </is>
-      </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Service Port?</t>
@@ -651,42 +651,42 @@
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>Style</t>
+          <t>Switch Port?</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Switch Port?</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Warranty</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Warranty</t>
+          <t>Json_Src</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>Webbase</t>
+          <t>Json_Type</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>Json_Src</t>
+          <t>Json_Info</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>Json_Spec</t>
+          <t>Json_Specification</t>
         </is>
       </c>
     </row>
@@ -696,15 +696,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>16149</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>16149</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>Evaporator Core /Repair Kit</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Evaporator Core Repair Kit w/o Orifice Tube</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Buick Century (94-76)
 Buick Commercial Chassis (94-91)
@@ -1049,46 +1067,42 @@
 Pontiac Ventura (77-76)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://www.4s.com/en/ecatalog?part=16149&amp;type=p&amp;search=s</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Evaporator Cores</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Evaporator Cores</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Aluminum</t>
+          <t>Evaporator Cores</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -1097,89 +1111,74 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>w/o Orifice Tube</t>
+          <t>Aluminum</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>w/o Orifice Tube</t>
+        </is>
+      </c>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr">
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr">
         <is>
           <t>4-1/2</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Evaporator Core /Repair Kit</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>Evaporator Core Repair Kit w/o Orifice Tube</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>1.75</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
           <t>Evaporator Core Repair Kit w/o Orifice Tube</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Repair Kit</t>
+        </is>
+      </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>Repair Kit</t>
+          <t>120 days</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>120 days</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Lf3LOZlbvP7Jft10deMxoyYF4nkLByFFki+PA/U85oZ69vnlsYVtke72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu1AZ3MwuIOGV4hJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Lf3LOZlbvP7Jft10deMxoyYF4nkLByFFki+PA/U85oYUMjZMJgXsjvFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j5Qnm0apZRR3"}</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>16149</t>
+          <t>{"0": "Evaporator Cores"}</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Lf3LOZlbvP7Jft10deMxoyYF4nkLByFFki+PA/U85oZ69vnlsYVtke72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH1YOn+fo5cr2A==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Lf3LOZlbvP7Jft10deMxoyYF4nkLByFFki+PA/U85oYUMjZMJgXsjvFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02QpmL8hJ2WnNZiQJSOi3Hj/"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Evaporator Core /Repair Kit", "Partlongdesc_En": "Evaporator Core Repair Kit w/o Orifice Tube", "Pop": "AA", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
@@ -1194,15 +1193,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>16152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16152</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>Evaporator Core /Repair Kit</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Evaporator Core Repair Kit w/ White Orifice Tube</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Buick Century (94-76)
 Buick Commercial Chassis (94-91)
@@ -1547,50 +1564,46 @@
 Pontiac Ventura (77-76)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://www.4s.com/en/ecatalog?part=16152&amp;type=p&amp;search=s</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Evaporator Cores</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>WARNING: This product contains a chemical known to the State of California to cause birth defects or other reproductive harm.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Evaporator Cores</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Aluminum</t>
+          <t>Evaporator Cores</t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
@@ -1599,89 +1612,74 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>w/ Orifice tube</t>
+          <t>Aluminum</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>w/ Orifice tube</t>
+        </is>
+      </c>
       <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr">
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr">
         <is>
           <t>4-1/2</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Evaporator Core /Repair Kit</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>Evaporator Core Repair Kit w/ White Orifice Tube</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-      <c r="AN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>1.75</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
           <t>Evaporator Core Repair Kit w/ White Orifice Tube</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>Repair Kit</t>
+        </is>
+      </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>Repair Kit</t>
+          <t>120 days</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>120 days</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Lf3LOZlbvP6CQ5EYcsh9aiYF4nkLByFFki+PA/U85oaPz2TA+yWCBu72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu21X/ipdhGbXYhJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Lf3LOZlbvP6CQ5EYcsh9aiYF4nkLByFFki+PA/U85oYhFdiQ34r9jfFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j3e8LhauZMuU"}</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>16152</t>
+          <t>{"0": "Evaporator Cores"}</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Lf3LOZlbvP6CQ5EYcsh9aiYF4nkLByFFki+PA/U85oaPz2TA+yWCBu72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH1YOn+fo5cr2A==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Lf3LOZlbvP6CQ5EYcsh9aiYF4nkLByFFki+PA/U85oYhFdiQ34r9jfFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02QpmL8hJ2WnNZiQJSOi3Hj/"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Evaporator Core /Repair Kit", "Partlongdesc_En": "Evaporator Core Repair Kit w/ White Orifice Tube", "Pop": "AA", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
@@ -1696,15 +1694,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>16155</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>16155</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>Evaporator Core /Repair Kit</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Evaporator Core Repair Kit w/o Orifice Tube</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ford Aerostar (94-86)
 Ford Aspire (94)
@@ -1823,46 +1839,42 @@
 Mercury Zephyr (83-80)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://www.4s.com/en/ecatalog?part=16155&amp;type=p&amp;search=s</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Evaporator Cores</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Evaporator Cores</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Aluminum</t>
+          <t>Evaporator Cores</t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
@@ -1871,89 +1883,74 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>w/o Orifice Tube</t>
+          <t>Aluminum</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>w/o Orifice Tube</t>
+        </is>
+      </c>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr">
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr">
         <is>
           <t>5-1/2</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Evaporator Core /Repair Kit</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>Evaporator Core Repair Kit w/o Orifice Tube</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AN4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>5.25</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
           <t>Evaporator Core Repair Kit w/o Orifice Tube</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>Repair Kit</t>
+        </is>
+      </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>Repair Kit</t>
+          <t>120 days</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>120 days</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Lf3LOZlbvP7X43kWxU+orSYF4nkLByFFki+PA/U85oac9yqP92GbU+72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu1Qxk3fgFmqSYhJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Lf3LOZlbvP7X43kWxU+orSYF4nkLByFFki+PA/U85oa2BK28AYOsePFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j22og0cIj/CG"}</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>16155</t>
+          <t>{"0": "Evaporator Cores"}</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Lf3LOZlbvP7X43kWxU+orSYF4nkLByFFki+PA/U85oac9yqP92GbU+72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH1YOn+fo5cr2A==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Lf3LOZlbvP7X43kWxU+orSYF4nkLByFFki+PA/U85oa2BK28AYOsePFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02QpmL8hJ2WnNZiQJSOi3Hj/"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Evaporator Core /Repair Kit", "Partlongdesc_En": "Evaporator Core Repair Kit w/o Orifice Tube", "Pop": "C", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
@@ -1968,15 +1965,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>44001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>44001</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>Evaporator Core</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Plate &amp; Fin Evaporator Core</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Audi A3 (13-06)
 Audi A3 Quattro (13-06)
@@ -1986,12 +2001,13 @@
 Audi TTS Quattro (15-09)
 Volkswagen CC (17-14)
 Volkswagen Eos (16-07)
+Volkswagen GLI (10)
 Volkswagen Golf (14-10), (07-06)
 Volkswagen Golf City (10-07)
 Volkswagen Golf R (13-12)
 Volkswagen Golf Sportwagen (11-10)
 Volkswagen GTI (14-06)
-Volkswagen Jetta (18-06)
+Volkswagen Jetta (18-05)
 Volkswagen Jetta City (09-07)
 Volkswagen R32 (08)
 Volkswagen Rabbit (09-06)
@@ -1999,197 +2015,178 @@
 Volkswagen Tiguan Limited (18-17)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://www.4s.com/en/ecatalog?part=44001&amp;type=p&amp;search=s</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Evaporator Cores</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
         <is>
           <t>2-3/8</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2.375</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>60.33</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>9-1/4</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>9.250</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>234.95</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>9-1/4</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>9.250</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>234.95</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>Evaporator Cores</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>No. 8</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>Pilot</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>Flange</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>Aluminum</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>24608 / Green O-Ring</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>24610 / Green O-Ring</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>No. 10</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>Pilot</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>Block Fitting</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Evaporator Core</t>
+          <t>Flange</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>Plate &amp; Fin Evaporator Core</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="AN5" t="n">
-        <v>1</v>
-      </c>
+          <t>Block Fitting</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
+      <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr">
         <is>
           <t>w/o Service Port</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>w/o Switch Port</t>
+        </is>
+      </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>w/o Switch Port</t>
+          <t>Plate &amp; Fin</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>Plate &amp; Fin</t>
+          <t>120 days</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>120 days</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85obgfFQ7a7uOFe72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu21X/ipdhGbXYhJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85obhFuffeFgS7l6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DPHkodw5Eu8R", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85obhFuffeFgS7pIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DPHkodw5Eu8R", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85oYBuNC7uzSuUvFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j3e8LhauZMuU", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85oZX8D92IvYEBekBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DPHkodw5Eu8R", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85oZF7XBsJxM0qy6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j3e8LhauZMuU", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85oYW5NOHCF+T3y6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j3e8LhauZMuU", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85oYIBUUa1vTTEaXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DPHkodw5Eu8R"}</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>44001</t>
+          <t>{"0": "Evaporator Cores"}</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85obgfFQ7a7uOFe72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH1FIZMQUD5kyg==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85obhFuffeFgS7l6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiLG6VVktt7GRexDDtSObvr3", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85obhFuffeFgS7pIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiLG6VVktt7GRexDDtSObvr3", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85oYBuNC7uzSuUvFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02TMPj1+s/AHv5iQJSOi3Hj/", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85oZX8D92IvYEBekBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiLG6VVktt7GRexDDtSObvr3", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85oZF7XBsJxM0qy6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02TMPj1+s/AHv5iQJSOi3Hj/", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85oYW5NOHCF+T3y6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02TMPj1+s/AHv5iQJSOi3Hj/", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8v6u1XXvT2GlSYF4nkLByFFki+PA/U85oYIBUUa1vTTEaXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiLG6VVktt7GRexDDtSObvr3"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Evaporator Core", "Partlongdesc_En": "Plate &amp; Fin Evaporator Core", "Pop": "C", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
@@ -2204,198 +2201,197 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>44002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>44002</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Evaporator Core</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Plate &amp; Fin Evaporator Core</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Toyota Highlander (07-06)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://www.4s.com/en/ecatalog?part=44002&amp;type=p&amp;search=s</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Evaporator Cores</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
         <is>
           <t>2-1/4</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2.250</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>57.15</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>10-3/4</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>10.75</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>273.05</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>11-5/8</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>11.63</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>295.27</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>Evaporator Cores</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>No. 6</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>Pilot</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>Block Fitting</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>Aluminum</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>24661 / Green O-Ring</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>24681 / Green O-Ring</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr">
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>No. 8</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>Captured O-Ring</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>Block Fitting</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Evaporator Core</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>Plate &amp; Fin Evaporator Core</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AN6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
+      <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
+      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>Plate &amp; Fin</t>
+        </is>
+      </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>Plate &amp; Fin</t>
+          <t>120 days</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>120 days</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85oZVw5JpaPvH4+72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu3pOb0g2T3RaIhJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85obHwSCFWyAmQV6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DCeqOj1bcIsQ", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85obHwSCFWyAmQZIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DCeqOj1bcIsQ", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85obTHArAsuzs1/FN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j0PnR7s3tCc4", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85oYm6P982pl8IekBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DCeqOj1bcIsQ", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85obGpOibeJ5YWC6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j0PnR7s3tCc4", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85oZUtEcUte5rmi6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j0PnR7s3tCc4", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85oY8hyFon+CE96Xl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DCeqOj1bcIsQ"}</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>44002</t>
+          <t>{"0": "Evaporator Cores"}</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85oZVw5JpaPvH4+72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH1YOn+fo5cr2A==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85obHwSCFWyAmQV6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiJdn1cSL/zjU+xDDtSObvr3", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85obHwSCFWyAmQZIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiJdn1cSL/zjU+xDDtSObvr3", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85obTHArAsuzs1/FN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02QpmL8hJ2WnNZiQJSOi3Hj/", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85oYm6P982pl8IekBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiJdn1cSL/zjU+xDDtSObvr3", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85obGpOibeJ5YWC6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02QpmL8hJ2WnNZiQJSOi3Hj/", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85oZUtEcUte5rmi6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02QpmL8hJ2WnNZiQJSOi3Hj/", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t4Kmah7Zhn6SYF4nkLByFFki+PA/U85oY8hyFon+CE96Xl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiJdn1cSL/zjU+xDDtSObvr3"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Evaporator Core", "Partlongdesc_En": "Plate &amp; Fin Evaporator Core", "Pop": "F", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
@@ -2410,190 +2406,189 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>44003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>44003</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Evaporator Core</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Plate &amp; Fin Evaporator Core</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>Subaru Impreza (07-02)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://www.4s.com/en/ecatalog?part=44003&amp;type=p&amp;search=s</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Evaporator Cores</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
         <is>
           <t>1-7/8</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>1.875</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>47.63</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>7-11/16</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>7.69</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>195.26</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>Evaporator Cores</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>No. 8</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
         <is>
           <t>Block Fitting</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>Aluminum</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>24608 / Green O-Ring</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>24610 / Green O-Ring</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr">
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>No. 10</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr">
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>Block Fitting</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Evaporator Core</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>Plate &amp; Fin Evaporator Core</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AN7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
+      <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
+      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>Plate &amp; Fin</t>
+        </is>
+      </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>Plate &amp; Fin</t>
+          <t>120 days</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>120 days</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85oZAsNmb1+SZge72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu3pOb0g2T3RaIhJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85obYTYHzyJx8h16DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DCeqOj1bcIsQ", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85obYTYHzyJx8h5IGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DCeqOj1bcIsQ", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85ob98Tl2bOlMkvFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j0PnR7s3tCc4", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85ob5B4rc3mThm+kBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DCeqOj1bcIsQ", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85oY0To8GFsqcFC6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j0PnR7s3tCc4", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85oZ/xcruBnsv3i6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j0PnR7s3tCc4", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85oapN5o2WbVi+aXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DCeqOj1bcIsQ"}</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>44003</t>
+          <t>{"0": "Evaporator Cores"}</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85oZAsNmb1+SZge72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH0J2UHTTY2TMw==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85obYTYHzyJx8h16DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiJ55aKXwQ60YuxDDtSObvr3", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85obYTYHzyJx8h5IGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiJ55aKXwQ60YuxDDtSObvr3", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85ob98Tl2bOlMkvFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02RdEvJ/ehIwgpiQJSOi3Hj/", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85ob5B4rc3mThm+kBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiJ55aKXwQ60YuxDDtSObvr3", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85oY0To8GFsqcFC6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02RdEvJ/ehIwgpiQJSOi3Hj/", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85oZ/xcruBnsv3i6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02RdEvJ/ehIwgpiQJSOi3Hj/", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8tDB13TpFFB/SYF4nkLByFFki+PA/U85oapN5o2WbVi+aXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiJ55aKXwQ60YuxDDtSObvr3"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Evaporator Core", "Partlongdesc_En": "Plate &amp; Fin Evaporator Core", "Pop": "D", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
@@ -2608,198 +2603,197 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>44014</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>44014</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Evaporator Core</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Plate &amp; Fin Evaporator Core</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>Suzuki Aerio (07-02)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://www.4s.com/en/ecatalog?part=44014&amp;type=p&amp;search=s</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Evaporator Cores</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
         <is>
           <t>2-5/8</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2.625</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>66.67</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>9-1/4</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9.250</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>234.95</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>10-1/16</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>10.06</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>255.59</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>Evaporator Cores</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>No. 8</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>Captured O-Ring</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>Block Fitting</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>Aluminum</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>24661 / Green O-Ring</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>24681 / Green O-Ring</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr">
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>No. 10</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>Captured O-Ring</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>Block Fitting</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Evaporator Core</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>Plate &amp; Fin Evaporator Core</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AN8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
+      <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
+      <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>Plate &amp; Fin</t>
+        </is>
+      </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>Plate &amp; Fin</t>
+          <t>120 days</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>120 days</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8sedEN2OOnh1yYF4nkLByFFki+PA/U85ob5tPgc9IeMGO72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu01iwuNxI6dkIhJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8sedEN2OOnh1yYF4nkLByFFki+PA/U85oaZf/fSjLJefpIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96qHpEBkxkFazcY7M3euVlVC", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8sedEN2OOnh1yYF4nkLByFFki+PA/U85oaF9E2RqfR1rvFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j6fBB3socLrY", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8sedEN2OOnh1yYF4nkLByFFki+PA/U85oa6adeB0RCIxS6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j6fBB3socLrY"}</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>44014</t>
+          <t>{"0": "Evaporator Cores"}</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8sedEN2OOnh1yYF4nkLByFFki+PA/U85ob5tPgc9IeMGO72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH36qw/RKLpgpw==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8sedEN2OOnh1yYF4nkLByFFki+PA/U85oaZf/fSjLJefpIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiK+IaTvZtY47uxDDtSObvr3", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8sedEN2OOnh1yYF4nkLByFFki+PA/U85oaF9E2RqfR1rvFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02SjzMUvwmf7dpiQJSOi3Hj/", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8sedEN2OOnh1yYF4nkLByFFki+PA/U85oa6adeB0RCIxS6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02SjzMUvwmf7dpiQJSOi3Hj/"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Evaporator Core", "Partlongdesc_En": "Plate &amp; Fin Evaporator Core", "Pop": "F", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
@@ -2814,200 +2808,199 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>44015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>44015</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>Evaporator Core</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Plate &amp; Fin Evaporator Core</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Chevrolet Optra (07-04)
 Suzuki Forenza (08-04)
 Suzuki Reno (08-05)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://www.4s.com/en/ecatalog?part=44015&amp;type=p&amp;search=s</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Evaporator Cores</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
         <is>
           <t>1-7/8</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>1.875</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>47.63</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>8-7/16</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>8.44</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>214.31</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>9-7/16</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>9.44</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>239.71</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>Evaporator Cores</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>No. 8</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>O-Ring</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>Block Fitting</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>Aluminum</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>24608 / Green O-Ring</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>24610 / Green O-Ring</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>No. 10</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>O-Ring</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>Block Fitting</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Evaporator Core</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>Plate &amp; Fin Evaporator Core</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AN9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
+      <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
+      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>Plate &amp; Fin</t>
+        </is>
+      </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>Plate &amp; Fin</t>
+          <t>120 days</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>120 days</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t1pzrxRWp2GiYF4nkLByFFki+PA/U85oYu/vZIlgMMKO72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu21X/ipdhGbXYhJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t1pzrxRWp2GiYF4nkLByFFki+PA/U85oYBkEzIVRBybvFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j3e8LhauZMuU", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t1pzrxRWp2GiYF4nkLByFFki+PA/U85obDbxf4kkmI1S6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j3e8LhauZMuU"}</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>44015</t>
+          <t>{"0": "Evaporator Cores"}</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t1pzrxRWp2GiYF4nkLByFFki+PA/U85oYu/vZIlgMMKO72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH0OJdqGmU1Auw==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t1pzrxRWp2GiYF4nkLByFFki+PA/U85oYBkEzIVRBybvFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02Sw1ntSPt8GgZiQJSOi3Hj/", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8t1pzrxRWp2GiYF4nkLByFFki+PA/U85obDbxf4kkmI1S6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02Sw1ntSPt8GgZiQJSOi3Hj/"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Evaporator Core", "Partlongdesc_En": "Plate &amp; Fin Evaporator Core", "Pop": "F", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
@@ -3022,187 +3015,186 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>44017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>44017</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>Evaporator Core</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Plate &amp; Fin Evaporator Core</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Suzuki Grand Vitara (05-03)
 Suzuki XL-7 (06-03)</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://www.4s.com/en/ecatalog?part=44017&amp;type=p&amp;search=s</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Evaporator Cores</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
         <is>
           <t>2-3/8</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2.360</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>10-1/2</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>10.51</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>267</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>9-1/4</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>9.250</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>235</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>Evaporator Cores</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>No. 10</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>Captive O-Ring</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>Block Fitting</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>Aluminum</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>24610 / Green O-Ring</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr">
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>No. 10</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr">
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
         <is>
           <t>Block Fitting</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Evaporator Core</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>Plate &amp; Fin Evaporator Core</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AN10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
+      <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
+      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>Plate &amp; Fin</t>
+        </is>
+      </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>Plate &amp; Fin</t>
+          <t>120 days</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>120 days</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85oYG01T9SKNSXe72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu1AZ3MwuIOGV4hJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85oZuyWFLlvYXVV6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DI5dehMGTHPc", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85oZuyWFLlvYXVZIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DI5dehMGTHPc", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85oYWB5AyscEKq/FN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j5Qnm0apZRR3", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85obQXVUqDq6H8+kBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DI5dehMGTHPc", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85oZPqnwkOd4IsS6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j5Qnm0apZRR3", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85obZ4Q2UIyUdOS6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j5Qnm0apZRR3", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85oZ+L29eCdAYcaXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DI5dehMGTHPc"}</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>44017</t>
+          <t>{"0": "Evaporator Cores"}</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85oYG01T9SKNSXe72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH0OJdqGmU1Auw==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85oZuyWFLlvYXVV6DrKAJfZjYMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiJzosip9f6TdOxDDtSObvr3", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85oZuyWFLlvYXVZIGP8XlP8xfMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiJzosip9f6TdOxDDtSObvr3", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85oYWB5AyscEKq/FN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02Sw1ntSPt8GgZiQJSOi3Hj/", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85obQXVUqDq6H8+kBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiJzosip9f6TdOxDDtSObvr3", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85oZPqnwkOd4IsS6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02Sw1ntSPt8GgZiQJSOi3Hj/", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85obZ4Q2UIyUdOS6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02Sw1ntSPt8GgZiQJSOi3Hj/", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8vH+nLhGvAemyYF4nkLByFFki+PA/U85oZ+L29eCdAYcaXl5+43ctpMMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiJzosip9f6TdOxDDtSObvr3"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Evaporator Core", "Partlongdesc_En": "Plate &amp; Fin Evaporator Core", "Pop": "W", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
@@ -3217,178 +3209,177 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>44021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>44021</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Evaporator Core</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Plate &amp; Fin Evaporator Core</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>Saab 9-5 (09-99)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://www.4s.com/en/ecatalog?part=44021&amp;type=p&amp;search=s</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Evaporator Cores</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
         <is>
           <t>2-15/16</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2.95</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>75</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>8-7/8</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>8.86</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>12-3/8</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>12.4</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>Evaporator Cores</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>No. 6</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>O-Ring</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>Male Insert O-ring</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>Aluminum</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>No. 8</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>Male Insert O-ring</t>
-        </is>
-      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>No. 8</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Male Insert O-ring</t>
+        </is>
+      </c>
       <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Evaporator Core</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>Plate &amp; Fin Evaporator Core</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AN11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
+      <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
+      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>Plate &amp; Fin</t>
+        </is>
+      </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>Plate &amp; Fin</t>
+          <t>120 days</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>120 days</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8ukKHfMNsqxKSYF4nkLByFFki+PA/U85oaueX+DhWDoQ+72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg0y25P99XRlgKx3ZqETXguu3pOb0g2T3RaIhJb67kWwLn", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8ukKHfMNsqxKSYF4nkLByFFki+PA/U85oZZws9VkSHQ4fFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j0PnR7s3tCc4", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8ukKHfMNsqxKSYF4nkLByFFki+PA/U85oY+K6WJw+/xQukBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9PdYih1B9QV1fEoPVn0I96rz7SYvgb21DCeqOj1bcIsQ", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8ukKHfMNsqxKSYF4nkLByFFki+PA/U85oaRztXhiCeHZS6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98qtm7sKfwrflTMy6SeCRll1de6HvIQhl+j0PnR7s3tCc4"}</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>44021</t>
+          <t>{"0": "Evaporator Cores"}</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8ukKHfMNsqxKSYF4nkLByFFki+PA/U85oaueX+DhWDoQ+72HZkm08flMYvVb8ruU/a2jlDyZ/9SFhHKSDnV/vfUm++2cf2MyJSTHiO+uZMQDMRJmK/E5kGqgMS+q/NNn547DcAIwETg06tkU1oOVye2zUqahZqZWH0OJdqGmU1Auw==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8ukKHfMNsqxKSYF4nkLByFFki+PA/U85oZZws9VkSHQ4fFN3woIsCq7bEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02Sw1ntSPt8GgZiQJSOi3Hj/", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8ukKHfMNsqxKSYF4nkLByFFki+PA/U85oY+K6WJw+/xQukBDhZrewGmMoN++3vibKFGVC+8Va8jLaI8gQqRXhksVqg+QadFzZ6AfnnMwvAWvxs/HBA23UPYMJi1dAphBIcr+m7fx4OW9Abmhgl6HwWDhXmOIKxhTiJzosip9f6TdOxDDtSObvr3", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=IGpVARpZp8ukKHfMNsqxKSYF4nkLByFFki+PA/U85oaRztXhiCeHZS6xicFUkyzzbEHUQlckYE7y916PDj4mUplpjLqJxiUyNc0Dfr4BAXPekNlQ51Q7yIznwcghdmhavbavYiSVAdwf+9wZqa98quhOpCMOUvNZx2qglnhM02Sw1ntSPt8GgZiQJSOi3Hj/"}</t>
+          <t>{"Brand": "FS", "Partdesc_En": "Evaporator Core", "Partlongdesc_En": "Plate &amp; Fin Evaporator Core", "Pop": "W", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
